--- a/data/Blekinge/Blekinge_requirements_consumption_groups_full_electrification.xlsx
+++ b/data/Blekinge/Blekinge_requirements_consumption_groups_full_electrification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\sweden-electrification-committee\data\Blekinge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D0CF01-6338-44FA-82D0-09F5D946E68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4330A622-B869-48BA-85F2-D05C07B7F18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26205" yWindow="1680" windowWidth="21600" windowHeight="12735" xr2:uid="{38D7E84B-83B1-4379-B5CB-A78A2BD932F7}"/>
+    <workbookView xWindow="-22245" yWindow="3525" windowWidth="21600" windowHeight="12735" xr2:uid="{38D7E84B-83B1-4379-B5CB-A78A2BD932F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
